--- a/tests/data/test_formulas.xlsx
+++ b/tests/data/test_formulas.xlsx
@@ -1183,14 +1183,29 @@
         <f>AVERAGE(A1,B1)</f>
         <v>31.5</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="2">
+        <f>SUM(A1:C1)</f>
+        <v>94.5</v>
+      </c>
       <c r="E1" s="3"/>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="2">
+        <f>$A$1/2</f>
+        <v>21</v>
+      </c>
+      <c r="B2" s="2">
+        <f>$A$1/2</f>
+        <v>21</v>
+      </c>
+      <c r="C2" s="2">
+        <f>$A$1/2</f>
+        <v>21</v>
+      </c>
+      <c r="D2" s="2">
+        <f>SUM(A1:C2)</f>
+        <v>157.5</v>
+      </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
